--- a/Data/Temperature/TJ_d18O_d13C.xlsx
+++ b/Data/Temperature/TJ_d18O_d13C.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="182">
   <si>
     <t>Height</t>
   </si>
@@ -522,6 +522,69 @@
   </si>
   <si>
     <t>°C</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>d13C</t>
+  </si>
+  <si>
+    <t>d18O</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ma</t>
+  </si>
+  <si>
+    <t>‰</t>
   </si>
 </sst>
 </file>
@@ -545,7 +608,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -586,11 +649,20 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -627,6 +699,15 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C123EA-414A-4565-8C37-16F720A24685}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
@@ -4236,38 +4317,38 @@
   <dimension ref="A1:D81"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="4.7109375" customWidth="true"/>
-    <col min="4" max="4" width="5.37890625" customWidth="true"/>
+    <col min="1" max="1" width="11.64453125" customWidth="true"/>
+    <col min="2" max="2" width="11.64453125" customWidth="true"/>
+    <col min="3" max="3" width="4.64453125" customWidth="true"/>
+    <col min="4" max="4" width="5.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3">
@@ -4275,7 +4356,7 @@
         <v>12.190000000000001</v>
       </c>
       <c r="B3" s="0">
-        <v>201.52877606845385</v>
+        <v>201.51597777778554</v>
       </c>
       <c r="C3" s="0">
         <v>2.8700000000000001</v>
@@ -4289,7 +4370,7 @@
         <v>12.190000000000001</v>
       </c>
       <c r="B4" s="0">
-        <v>201.52877606845385</v>
+        <v>201.51597777778554</v>
       </c>
       <c r="C4" s="0">
         <v>3.2999999999999998</v>
@@ -4303,7 +4384,7 @@
         <v>12.190000000000001</v>
       </c>
       <c r="B5" s="0">
-        <v>201.52877606845385</v>
+        <v>201.51597777778554</v>
       </c>
       <c r="C5" s="0">
         <v>3</v>
@@ -4317,7 +4398,7 @@
         <v>12.190000000000001</v>
       </c>
       <c r="B6" s="0">
-        <v>201.52877606845385</v>
+        <v>201.51597777778554</v>
       </c>
       <c r="C6" s="0">
         <v>3.7599999999999998</v>
@@ -4331,7 +4412,7 @@
         <v>12.715978915662649</v>
       </c>
       <c r="B7" s="0">
-        <v>201.5131315673726</v>
+        <v>201.49376977912425</v>
       </c>
       <c r="C7" s="0">
         <v>2.2400000000000002</v>
@@ -4345,7 +4426,7 @@
         <v>12.715978915662649</v>
       </c>
       <c r="B8" s="0">
-        <v>201.5131315673726</v>
+        <v>201.49376977912425</v>
       </c>
       <c r="C8" s="0">
         <v>2.8900000000000001</v>
@@ -4359,7 +4440,7 @@
         <v>12.715978915662649</v>
       </c>
       <c r="B9" s="0">
-        <v>201.5131315673726</v>
+        <v>201.49376977912425</v>
       </c>
       <c r="C9" s="0">
         <v>3.1800000000000002</v>
@@ -4373,7 +4454,7 @@
         <v>12.715978915662649</v>
       </c>
       <c r="B10" s="0">
-        <v>201.5131315673726</v>
+        <v>201.49376977912425</v>
       </c>
       <c r="C10" s="0">
         <v>2.8300000000000001</v>
@@ -4387,7 +4468,7 @@
         <v>12.715978915662649</v>
       </c>
       <c r="B11" s="0">
-        <v>201.5131315673726</v>
+        <v>201.49376977912425</v>
       </c>
       <c r="C11" s="0">
         <v>2.8599999999999999</v>
@@ -4401,7 +4482,7 @@
         <v>12.715978915662649</v>
       </c>
       <c r="B12" s="0">
-        <v>201.5131315673726</v>
+        <v>201.49376977912425</v>
       </c>
       <c r="C12" s="0">
         <v>3.3599999999999999</v>
@@ -4415,7 +4496,7 @@
         <v>12.715978915662649</v>
       </c>
       <c r="B13" s="0">
-        <v>201.5131315673726</v>
+        <v>201.49376977912425</v>
       </c>
       <c r="C13" s="0">
         <v>3.29</v>
@@ -4429,7 +4510,7 @@
         <v>13.481039156626506</v>
       </c>
       <c r="B14" s="0">
-        <v>201.49037592943623</v>
+        <v>201.47479684379317</v>
       </c>
       <c r="C14" s="0">
         <v>3.5099999999999998</v>
@@ -4443,7 +4524,7 @@
         <v>13.481039156626506</v>
       </c>
       <c r="B15" s="0">
-        <v>201.49037592943623</v>
+        <v>201.47479684379317</v>
       </c>
       <c r="C15" s="0">
         <v>3.5499999999999998</v>
@@ -4457,7 +4538,7 @@
         <v>13.481039156626506</v>
       </c>
       <c r="B16" s="0">
-        <v>201.49037592943623</v>
+        <v>201.47479684379317</v>
       </c>
       <c r="C16" s="0">
         <v>4.6299999999999999</v>
@@ -4471,7 +4552,7 @@
         <v>13.481039156626506</v>
       </c>
       <c r="B17" s="0">
-        <v>201.49037592943623</v>
+        <v>201.47479684379317</v>
       </c>
       <c r="C17" s="0">
         <v>3.9399999999999999</v>
@@ -4485,7 +4566,7 @@
         <v>14.475617469879518</v>
       </c>
       <c r="B18" s="0">
-        <v>201.46079360011896</v>
+        <v>201.4554155202359</v>
       </c>
       <c r="C18" s="0">
         <v>3.6200000000000001</v>
@@ -4499,7 +4580,7 @@
         <v>14.475617469879518</v>
       </c>
       <c r="B19" s="0">
-        <v>201.46079360011896</v>
+        <v>201.4554155202359</v>
       </c>
       <c r="C19" s="0">
         <v>4.1100000000000003</v>
@@ -4513,7 +4594,7 @@
         <v>14.571249999999999</v>
       </c>
       <c r="B20" s="0">
-        <v>201.45794914537692</v>
+        <v>201.45356193135601</v>
       </c>
       <c r="C20" s="0">
         <v>3.6200000000000001</v>
@@ -4527,7 +4608,7 @@
         <v>14.619066265060242</v>
       </c>
       <c r="B21" s="0">
-        <v>201.45652691800589</v>
+        <v>201.45263513691603</v>
       </c>
       <c r="C21" s="0">
         <v>4.04</v>
@@ -4541,7 +4622,7 @@
         <v>14.619066265060242</v>
       </c>
       <c r="B22" s="0">
-        <v>201.45652691800589</v>
+        <v>201.45263513691603</v>
       </c>
       <c r="C22" s="0">
         <v>4.04</v>
@@ -4555,7 +4636,7 @@
         <v>14.619066265060242</v>
       </c>
       <c r="B23" s="0">
-        <v>201.45652691800589</v>
+        <v>201.45263513691603</v>
       </c>
       <c r="C23" s="0">
         <v>4.04</v>
@@ -4569,7 +4650,7 @@
         <v>14.619066265060242</v>
       </c>
       <c r="B24" s="0">
-        <v>201.45652691800589</v>
+        <v>201.45263513691603</v>
       </c>
       <c r="C24" s="0">
         <v>4.04</v>
@@ -4583,7 +4664,7 @@
         <v>14.743388554216867</v>
       </c>
       <c r="B25" s="0">
-        <v>201.45282912684124</v>
+        <v>201.45022547137214</v>
       </c>
       <c r="C25" s="0">
         <v>3.02</v>
@@ -4597,7 +4678,7 @@
         <v>14.743388554216867</v>
       </c>
       <c r="B26" s="0">
-        <v>201.45282912684124</v>
+        <v>201.45022547137214</v>
       </c>
       <c r="C26" s="0">
         <v>3.3100000000000001</v>
@@ -4611,7 +4692,7 @@
         <v>15.020722891566265</v>
       </c>
       <c r="B27" s="0">
-        <v>201.44480709718414</v>
+        <v>201.44485006362038</v>
       </c>
       <c r="C27" s="0">
         <v>4.3399999999999999</v>
@@ -4625,7 +4706,7 @@
         <v>15.020722891566265</v>
       </c>
       <c r="B28" s="0">
-        <v>201.44480709718414</v>
+        <v>201.44485006362038</v>
       </c>
       <c r="C28" s="0">
         <v>4.5300000000000002</v>
@@ -4639,7 +4720,7 @@
         <v>15.020722891566265</v>
       </c>
       <c r="B29" s="0">
-        <v>201.44480709718414</v>
+        <v>201.44485006362038</v>
       </c>
       <c r="C29" s="0">
         <v>4.7699999999999996</v>
@@ -4653,7 +4734,7 @@
         <v>15.020722891566265</v>
       </c>
       <c r="B30" s="0">
-        <v>201.44480709718414</v>
+        <v>201.44485006362038</v>
       </c>
       <c r="C30" s="0">
         <v>4.4500000000000002</v>
@@ -4667,7 +4748,7 @@
         <v>15.30762048192771</v>
       </c>
       <c r="B31" s="0">
-        <v>201.43941489375504</v>
+        <v>201.43935967975239</v>
       </c>
       <c r="C31" s="0">
         <v>3.6800000000000002</v>
@@ -4681,7 +4762,7 @@
         <v>15.699713855421688</v>
       </c>
       <c r="B32" s="0">
-        <v>201.43204554906862</v>
+        <v>201.43191995933225</v>
       </c>
       <c r="C32" s="0">
         <v>3.8799999999999999</v>
@@ -4695,7 +4776,7 @@
         <v>15.699713855421688</v>
       </c>
       <c r="B33" s="0">
-        <v>201.43204554906862</v>
+        <v>201.43191995933225</v>
       </c>
       <c r="C33" s="0">
         <v>3.8799999999999999</v>
@@ -4709,7 +4790,7 @@
         <v>15.699713855421688</v>
       </c>
       <c r="B34" s="0">
-        <v>201.43204554906862</v>
+        <v>201.43191995933225</v>
       </c>
       <c r="C34" s="0">
         <v>3.6899999999999999</v>
@@ -4723,7 +4804,7 @@
         <v>15.699713855421688</v>
       </c>
       <c r="B35" s="0">
-        <v>201.43204554906862</v>
+        <v>201.43191995933225</v>
       </c>
       <c r="C35" s="0">
         <v>4</v>
@@ -4737,7 +4818,7 @@
         <v>15.699713855421688</v>
       </c>
       <c r="B36" s="0">
-        <v>201.43204554906862</v>
+        <v>201.43191995933225</v>
       </c>
       <c r="C36" s="0">
         <v>4.1600000000000001</v>
@@ -4751,7 +4832,7 @@
         <v>15.699713855421688</v>
       </c>
       <c r="B37" s="0">
-        <v>201.43204554906862</v>
+        <v>201.43191995933225</v>
       </c>
       <c r="C37" s="0">
         <v>2.9300000000000002</v>
@@ -4765,7 +4846,7 @@
         <v>15.910105421686747</v>
       </c>
       <c r="B38" s="0">
-        <v>201.42809126655393</v>
+        <v>201.42792791422875</v>
       </c>
       <c r="C38" s="0">
         <v>4.25</v>
@@ -4779,7 +4860,7 @@
         <v>16.130060240963857</v>
       </c>
       <c r="B39" s="0">
-        <v>201.42395724392495</v>
+        <v>201.42375441252966</v>
       </c>
       <c r="C39" s="0">
         <v>2.98</v>
@@ -4793,7 +4874,7 @@
         <v>16.158750000000001</v>
       </c>
       <c r="B40" s="0">
-        <v>201.42341802358203</v>
+        <v>201.42321004274282</v>
       </c>
       <c r="C40" s="0">
         <v>3.3300000000000001</v>
@@ -4807,7 +4888,7 @@
         <v>16.158750000000001</v>
       </c>
       <c r="B41" s="0">
-        <v>201.42341802358203</v>
+        <v>201.42321004274282</v>
       </c>
       <c r="C41" s="0">
         <v>3.3300000000000001</v>
@@ -4821,7 +4902,7 @@
         <v>16.158750000000001</v>
       </c>
       <c r="B42" s="0">
-        <v>201.42341802358203</v>
+        <v>201.42321004274282</v>
       </c>
       <c r="C42" s="0">
         <v>3.4300000000000002</v>
@@ -4835,7 +4916,7 @@
         <v>16.158750000000001</v>
       </c>
       <c r="B43" s="0">
-        <v>201.42341802358203</v>
+        <v>201.42321004274282</v>
       </c>
       <c r="C43" s="0">
         <v>3.5499999999999998</v>
@@ -4849,7 +4930,7 @@
         <v>16.407394578313252</v>
       </c>
       <c r="B44" s="0">
-        <v>201.41874478061015</v>
+        <v>201.41849217125687</v>
       </c>
       <c r="C44" s="0">
         <v>3.1699999999999999</v>
@@ -4863,7 +4944,7 @@
         <v>16.407394578313252</v>
       </c>
       <c r="B45" s="0">
-        <v>201.41874478061015</v>
+        <v>201.41849217125687</v>
       </c>
       <c r="C45" s="0">
         <v>3.3799999999999999</v>
@@ -4877,7 +4958,7 @@
         <v>16.598659638554217</v>
       </c>
       <c r="B46" s="0">
-        <v>201.41514997832408</v>
+        <v>201.4148630393446</v>
       </c>
       <c r="C46" s="0">
         <v>3.2599999999999998</v>
@@ -4891,7 +4972,7 @@
         <v>16.598659638554217</v>
       </c>
       <c r="B47" s="0">
-        <v>201.41514997832408</v>
+        <v>201.4148630393446</v>
       </c>
       <c r="C47" s="0">
         <v>3.2599999999999998</v>
@@ -4905,7 +4986,7 @@
         <v>16.627349397590361</v>
       </c>
       <c r="B48" s="0">
-        <v>201.41461075798117</v>
+        <v>201.41431866955776</v>
       </c>
       <c r="C48" s="0">
         <v>3.9500000000000002</v>
@@ -4919,7 +5000,7 @@
         <v>16.770798192771082</v>
       </c>
       <c r="B49" s="0">
-        <v>201.41191465626662</v>
+        <v>201.41159682062357</v>
       </c>
       <c r="C49" s="0">
         <v>2.54</v>
@@ -4933,7 +5014,7 @@
         <v>16.770798192771082</v>
       </c>
       <c r="B50" s="0">
-        <v>201.41191465626662</v>
+        <v>201.41159682062357</v>
       </c>
       <c r="C50" s="0">
         <v>3.2400000000000002</v>
@@ -4947,7 +5028,7 @@
         <v>16.875993975903611</v>
       </c>
       <c r="B51" s="0">
-        <v>201.40993751500929</v>
+        <v>201.40960079807184</v>
       </c>
       <c r="C51" s="0">
         <v>3.5099999999999998</v>
@@ -4961,7 +5042,7 @@
         <v>16.875993975903611</v>
       </c>
       <c r="B52" s="0">
-        <v>201.40993751500929</v>
+        <v>201.40960079807184</v>
       </c>
       <c r="C52" s="0">
         <v>3.52</v>
@@ -4975,7 +5056,7 @@
         <v>16.981189759036145</v>
       </c>
       <c r="B53" s="0">
-        <v>201.40796037375196</v>
+        <v>201.40760477552007</v>
       </c>
       <c r="C53" s="0">
         <v>2.7599999999999998</v>
@@ -4989,7 +5070,7 @@
         <v>16.981189759036145</v>
       </c>
       <c r="B54" s="0">
-        <v>201.40796037375196</v>
+        <v>201.40760477552007</v>
       </c>
       <c r="C54" s="0">
         <v>3.02</v>
@@ -5003,7 +5084,7 @@
         <v>16.981189759036145</v>
       </c>
       <c r="B55" s="0">
-        <v>201.40796037375196</v>
+        <v>201.40760477552007</v>
       </c>
       <c r="C55" s="0">
         <v>3.02</v>
@@ -5017,7 +5098,7 @@
         <v>17.63149096385542</v>
       </c>
       <c r="B56" s="0">
-        <v>201.39573804597933</v>
+        <v>201.39526572701837</v>
       </c>
       <c r="C56" s="0">
         <v>2.9300000000000002</v>
@@ -5031,7 +5112,7 @@
         <v>17.63149096385542</v>
       </c>
       <c r="B57" s="0">
-        <v>201.39573804597933</v>
+        <v>201.39526572701837</v>
       </c>
       <c r="C57" s="0">
         <v>3.0699999999999998</v>
@@ -5045,7 +5126,7 @@
         <v>17.813192771084339</v>
       </c>
       <c r="B58" s="0">
-        <v>201.39232298380756</v>
+        <v>201.39181805170173</v>
       </c>
       <c r="C58" s="0">
         <v>2.1499999999999999</v>
@@ -5059,7 +5140,7 @@
         <v>17.813192771084339</v>
       </c>
       <c r="B59" s="0">
-        <v>201.39232298380756</v>
+        <v>201.39181805170173</v>
       </c>
       <c r="C59" s="0">
         <v>2.5099999999999998</v>
@@ -5073,7 +5154,7 @@
         <v>18.042710843373495</v>
       </c>
       <c r="B60" s="0">
-        <v>201.38800922106429</v>
+        <v>201.38746309340701</v>
       </c>
       <c r="C60" s="0">
         <v>2.4500000000000002</v>
@@ -5087,7 +5168,7 @@
         <v>19.977037037037036</v>
       </c>
       <c r="B61" s="0">
-        <v>201.35165380824492</v>
+        <v>201.35162661211095</v>
       </c>
       <c r="C61" s="0">
         <v>2.1600000000000001</v>
@@ -5101,7 +5182,7 @@
         <v>19.977037037037036</v>
       </c>
       <c r="B62" s="0">
-        <v>201.35165380824492</v>
+        <v>201.35162661211095</v>
       </c>
       <c r="C62" s="0">
         <v>1.8600000000000001</v>
@@ -5115,7 +5196,7 @@
         <v>20.023333333333333</v>
       </c>
       <c r="B63" s="0">
-        <v>201.35078128212905</v>
+        <v>201.35076630705143</v>
       </c>
       <c r="C63" s="0">
         <v>2.3599999999999999</v>
@@ -5129,7 +5210,7 @@
         <v>20.171481481481482</v>
       </c>
       <c r="B64" s="0">
-        <v>201.3479816619961</v>
+        <v>201.34800694445221</v>
       </c>
       <c r="C64" s="0">
         <v>1.99</v>
@@ -5143,7 +5224,7 @@
         <v>20.819629629629631</v>
       </c>
       <c r="B65" s="0">
-        <v>201.33573332391444</v>
+        <v>201.33585416667444</v>
       </c>
       <c r="C65" s="0">
         <v>1.71</v>
@@ -5157,7 +5238,7 @@
         <v>20.819629629629631</v>
       </c>
       <c r="B66" s="0">
-        <v>201.33573332391444</v>
+        <v>201.33585416667444</v>
       </c>
       <c r="C66" s="0">
         <v>2.0099999999999998</v>
@@ -5171,7 +5252,7 @@
         <v>22.060370370370372</v>
       </c>
       <c r="B67" s="0">
-        <v>201.31228650530093</v>
+        <v>201.31259027778555</v>
       </c>
       <c r="C67" s="0">
         <v>2.48</v>
@@ -5185,7 +5266,7 @@
         <v>22.060370370370372</v>
       </c>
       <c r="B68" s="0">
-        <v>201.31228650530093</v>
+        <v>201.31259027778555</v>
       </c>
       <c r="C68" s="0">
         <v>1.6899999999999999</v>
@@ -5199,7 +5280,7 @@
         <v>22.060370370370372</v>
       </c>
       <c r="B69" s="0">
-        <v>201.31228650530093</v>
+        <v>201.31259027778555</v>
       </c>
       <c r="C69" s="0">
         <v>1.73</v>
@@ -5213,7 +5294,7 @@
         <v>23.328888888888891</v>
       </c>
       <c r="B70" s="0">
-        <v>201.28831475791253</v>
+        <v>201.28880555556333</v>
       </c>
       <c r="C70" s="0">
         <v>2.04</v>
@@ -5227,7 +5308,7 @@
         <v>23.421481481481482</v>
       </c>
       <c r="B71" s="0">
-        <v>201.28656499532943</v>
+        <v>201.28706944445221</v>
       </c>
       <c r="C71" s="0">
         <v>2.73</v>
@@ -5241,7 +5322,7 @@
         <v>25.495555555555555</v>
       </c>
       <c r="B72" s="0">
-        <v>201.24684845311921</v>
+        <v>201.2472051282129</v>
       </c>
       <c r="C72" s="0">
         <v>2.5899999999999999</v>
@@ -5255,7 +5336,7 @@
         <v>26.227037037037036</v>
       </c>
       <c r="B73" s="0">
-        <v>201.23225501915442</v>
+        <v>201.23313817664595</v>
       </c>
       <c r="C73" s="0">
         <v>2.3199999999999998</v>
@@ -5269,7 +5350,7 @@
         <v>27.671481481481486</v>
       </c>
       <c r="B74" s="0">
-        <v>201.20343760524929</v>
+        <v>201.20536039886818</v>
       </c>
       <c r="C74" s="0">
         <v>1.6100000000000001</v>
@@ -5283,7 +5364,7 @@
         <v>27.671481481481486</v>
       </c>
       <c r="B75" s="0">
-        <v>201.20343760524929</v>
+        <v>201.20536039886818</v>
       </c>
       <c r="C75" s="0">
         <v>2.0099999999999998</v>
@@ -5297,7 +5378,7 @@
         <v>28.041851851851852</v>
       </c>
       <c r="B76" s="0">
-        <v>201.19604852476081</v>
+        <v>201.19823789174566</v>
       </c>
       <c r="C76" s="0">
         <v>1.26</v>
@@ -5311,7 +5392,7 @@
         <v>28.34740740740741</v>
       </c>
       <c r="B77" s="0">
-        <v>201.1899525333578</v>
+        <v>201.19236182336959</v>
       </c>
       <c r="C77" s="0">
         <v>1.8899999999999999</v>
@@ -5325,7 +5406,7 @@
         <v>28.34740740740741</v>
       </c>
       <c r="B78" s="0">
-        <v>201.1899525333578</v>
+        <v>201.19236182336959</v>
       </c>
       <c r="C78" s="0">
         <v>1.98</v>
@@ -5339,7 +5420,7 @@
         <v>28.34740740740741</v>
       </c>
       <c r="B79" s="0">
-        <v>201.1899525333578</v>
+        <v>201.19236182336959</v>
       </c>
       <c r="C79" s="0">
         <v>1.98</v>
@@ -5353,7 +5434,7 @@
         <v>28.34740740740741</v>
       </c>
       <c r="B80" s="0">
-        <v>201.1899525333578</v>
+        <v>201.19236182336959</v>
       </c>
       <c r="C80" s="0">
         <v>1.98</v>
@@ -5367,7 +5448,7 @@
         <v>28.34740740740741</v>
       </c>
       <c r="B81" s="0">
-        <v>201.1899525333578</v>
+        <v>201.19236182336959</v>
       </c>
       <c r="C81" s="0">
         <v>1.98</v>
